--- a/newFuncTest.xlsx
+++ b/newFuncTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\Project\Assesment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1989s\study\LastYear\Project\Assesment2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89CB6699-A9A1-465E-87F6-9BC4BEE6CF15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDD9B354-4424-4746-A0DF-7D922B2AEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>FUNCTIONAL TESTING TEST CASE</t>
   </si>
@@ -99,6 +99,33 @@
   </si>
   <si>
     <t>VOL-1</t>
+  </si>
+  <si>
+    <t>paper prototype</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>shows pictures</t>
+  </si>
+  <si>
+    <t>click in link 1</t>
+  </si>
+  <si>
+    <t>click in link 2</t>
+  </si>
+  <si>
+    <t>click in link 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">click on posters button </t>
+  </si>
+  <si>
+    <t>redirect to new page</t>
+  </si>
+  <si>
+    <t>check screen resolution</t>
   </si>
 </sst>
 </file>
@@ -187,12 +214,14 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -279,7 +308,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -339,13 +368,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -410,23 +482,35 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -710,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:EZ883"/>
+  <dimension ref="A1:EZ884"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,201 +1116,329 @@
     </row>
     <row r="11" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>1</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="29"/>
+      <c r="C11" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="29">
+        <v>45051</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="12" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="25"/>
-      <c r="B12" s="26">
-        <f>1+$B11</f>
+      <c r="B12" s="27">
         <v>2</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="29"/>
+      <c r="C12" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="30"/>
     </row>
     <row r="13" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="25"/>
-      <c r="B13" s="26">
-        <f t="shared" ref="B13:B20" si="0">1+$B12</f>
+      <c r="B13" s="27">
         <v>3</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="29"/>
+      <c r="C13" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="29">
+        <v>45052</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="25"/>
-      <c r="B14" s="26">
-        <f t="shared" si="0"/>
+      <c r="B14" s="27">
+        <f t="shared" ref="B14:B26" si="0">1+$B13</f>
         <v>4</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="29"/>
+      <c r="C14" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="29">
+        <v>45053</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
-      <c r="B15" s="26">
+      <c r="B15" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="29"/>
+      <c r="C15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="29">
+        <v>45054</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:156" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="25"/>
-      <c r="B16" s="26">
+      <c r="B16" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="29"/>
+      <c r="C16" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="29">
+        <v>45055</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="25"/>
-      <c r="B17" s="26">
+      <c r="B17" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="29"/>
+      <c r="C17" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="29">
+        <v>45056</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="18" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="25"/>
-      <c r="B18" s="26">
+      <c r="B18" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="13"/>
-      <c r="B19" s="26">
+      <c r="C18" s="34"/>
+      <c r="D18" s="29">
+        <v>45057</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="52.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="25"/>
+      <c r="B19" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="26">
+      <c r="C19" s="33"/>
+      <c r="D19" s="29">
+        <v>45058</v>
+      </c>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="13"/>
+      <c r="B20" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="29"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C20" s="32"/>
+      <c r="D20" s="29">
+        <v>45059</v>
+      </c>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="49.9" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="27">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C21" s="32"/>
+      <c r="D21" s="29">
+        <v>45060</v>
+      </c>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
+      <c r="B22" s="27">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="29">
+        <v>45061</v>
+      </c>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="27">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C23" s="32"/>
+      <c r="D23" s="29">
+        <v>45062</v>
+      </c>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
+      <c r="B24" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="29">
+        <v>45063</v>
+      </c>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="27">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="29">
+        <v>45064</v>
+      </c>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="27">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="29">
+        <v>45065</v>
+      </c>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" s="30" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="13"/>
@@ -9788,7 +10000,18 @@
       <c r="G883" s="13"/>
       <c r="H883" s="13"/>
     </row>
+    <row r="884" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A884" s="13"/>
+      <c r="B884" s="13"/>
+      <c r="C884" s="13"/>
+      <c r="D884" s="13"/>
+      <c r="E884" s="13"/>
+      <c r="F884" s="13"/>
+      <c r="G884" s="13"/>
+      <c r="H884" s="13"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>